--- a/src/main/resources/file/1-4_updated.xlsx
+++ b/src/main/resources/file/1-4_updated.xlsx
@@ -25,9 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
-    <t>Sportsmen1</t>
+    <t>test 1</t>
+  </si>
+  <si>
+    <t>test 98</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -488,10 +494,10 @@
       <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" t="n" s="0">
+        <v>1.0</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -504,17 +510,19 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
+      <c r="W1" t="n" s="0">
+        <v>98.0</v>
+      </c>
       <c r="X1" s="1"/>
       <c r="Y1" t="s" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -524,31 +532,31 @@
       <c r="W2" s="1"/>
       <c r="X2" s="9"/>
       <c r="Y2" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="B3" t="s" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" s="1"/>
+      <c r="D3" s="0"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
+      <c r="W3" s="0"/>
       <c r="X3" s="8"/>
       <c r="Y3" t="s" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" t="s" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -558,7 +566,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="2"/>
       <c r="Y4" t="s" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" s="6"/>
     </row>

--- a/src/main/resources/file/1-4_updated.xlsx
+++ b/src/main/resources/file/1-4_updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\sport_pject\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDD2681-3DDA-4C12-A50E-CF3693BAACFB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F16CE-7C6E-40C2-8B9A-05600A8268AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,15 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
-    <t>test 1</t>
+    <t>Уралов Кувончбек</t>
   </si>
   <si>
-    <t>test 98</t>
+    <t>Эркулов Шохжахон</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Пастдаргом БУСМ-1</t>
+  </si>
+  <si>
+    <t>Мараканд</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -64,7 +79,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -93,15 +108,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -145,7 +151,33 @@
       <left style="thick">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
@@ -156,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -167,33 +199,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,181 +507,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="4.7109375"/>
-    <col min="2" max="2" customWidth="true" width="14.140625"/>
-    <col min="25" max="25" customWidth="true" width="14.140625"/>
+    <col min="2" max="2" customWidth="true" width="20.7109375"/>
+    <col min="3" max="3" customWidth="true" width="20.85546875"/>
+    <col min="10" max="10" customWidth="true" width="4.7109375"/>
+    <col min="11" max="12" customWidth="true" width="20.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s" s="2">
+        <v>2</v>
+      </c>
       <c r="B1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="E1" s="1"/>
+      <c r="C1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="0"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" t="n" s="0">
-        <v>98.0</v>
-      </c>
-      <c r="X1" s="1"/>
-      <c r="Y1" t="s" s="4">
+      <c r="H1" s="1"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="8"/>
+      <c r="K1" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s" s="11">
         <v>1</v>
       </c>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1"/>
+      <c r="M1" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s" s="4">
+        <v>6</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="7"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="6"/>
-    </row>
-    <row r="3" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="0"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="2"/>
+      <c r="K2" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="0"/>
+      <c r="I3"/>
+      <c r="J3" s="5"/>
+      <c r="K3" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s" s="13">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s" s="4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s" s="4">
+        <v>6</v>
+      </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" t="s" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="6"/>
-    </row>
-    <row r="5" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="9"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="3"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="14"/>
-      <c r="H8" s="12"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="3"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>